--- a/FamilyTree/FamilyTree/src/tree.xlsx
+++ b/FamilyTree/FamilyTree/src/tree.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Full name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Кошкина Светлана</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -405,114 +408,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>27</v>
       </c>
     </row>

--- a/FamilyTree/FamilyTree/src/tree.xlsx
+++ b/FamilyTree/FamilyTree/src/tree.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Full name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>т</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -449,9 +452,6 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>38</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -460,9 +460,6 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -471,9 +468,6 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -482,9 +476,6 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -493,9 +484,6 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -504,9 +492,6 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -515,9 +500,6 @@
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -526,9 +508,6 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>49</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -537,9 +516,6 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -548,8 +524,13 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>27</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
